--- a/sources/excel/UI测试用例.xlsx
+++ b/sources/excel/UI测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1108,16 +1108,16 @@
   </sheetPr>
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="126" customWidth="1"/>
-    <col min="5" max="5" width="8.42857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42592592592593" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1388888888889" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1172,7 +1172,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" ht="25.5" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" ht="25.5" spans="1:6">
+    <row r="5" spans="1:6">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" ht="25.5" spans="1:6">
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
         <v>5</v>
       </c>

--- a/sources/excel/UI测试用例.xlsx
+++ b/sources/excel/UI测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -47,40 +47,37 @@
     <t>other_data</t>
   </si>
   <si>
-    <t>gitee</t>
+    <t>百度</t>
   </si>
   <si>
     <t>搜索芒果测试平台</t>
   </si>
   <si>
-    <t>{"name": "芒果测试平台"}</t>
+    <t>{"name": "maopeng/芒果测试平台"}</t>
   </si>
   <si>
-    <t>搜索PytestAutoTest</t>
+    <t>搜索mangopytest</t>
   </si>
   <si>
-    <t>{"name": "PytestAutoTest"}</t>
+    <t>{"name": "maopeng/基于Pytest的UI和API测试框架"}</t>
   </si>
   <si>
-    <t>玩安卓</t>
+    <t>搜索maopeng的个人主页</t>
   </si>
   <si>
-    <t>正确的账号，正确的密码，进行登录</t>
+    <t>{"name": "maopenggitee"}</t>
   </si>
   <si>
-    <t>{"username": "maopeng", "password": "729164035"}</t>
+    <t>进入到mangopytest主页</t>
   </si>
   <si>
-    <t>正确的账号，错误的密码，进行登录</t>
+    <t>文件上传</t>
   </si>
   <si>
-    <t>{"username": "maopeng", "password": "7291640351"}</t>
+    <t>{"name": "文件"}</t>
   </si>
   <si>
-    <t>错误的账号，错误的密码，进行登录</t>
-  </si>
-  <si>
-    <t>{"username": "maopeng1", "password": "729164035"}</t>
+    <t>鼠标悬停</t>
   </si>
 </sst>
 </file>
@@ -757,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -781,9 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1106,18 +1100,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="126" customWidth="1"/>
-    <col min="5" max="5" width="8.42592592592593" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1388888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42857142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1177,13 +1171,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1193,14 +1187,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
@@ -1209,21 +1201,27 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -2756,25 +2754,12 @@
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B200">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B2:B3 B6:B7">
+      <formula1>"百度,芒果mock"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B8:B198">
       <formula1>"CDP,DESK,玩安卓,百度翻译,gitee,芒果测试平台,智投"</formula1>
     </dataValidation>
   </dataValidations>
